--- a/Analysis_results_files/Results_fMRI_behavior.xlsx
+++ b/Analysis_results_files/Results_fMRI_behavior.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michaelpeer1\Dropbox (Epstein Lab)\Epstein Lab Team Folder\Michael_Peer\Segmentation project\For_online_availability\Analysis_results_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michaelpeer1\Dropbox (Epstein Lab)\Epstein Lab Team Folder\Michael_Peer\Segmentation project\Segmentation_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA22E95-38F2-4D37-8EAE-0C265730A3E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC8EC1-8DD2-4582-8096-9A1489AB37CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BC80A79D-A10D-49E9-8338-82720E31754F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="7" xr2:uid="{BC80A79D-A10D-49E9-8338-82720E31754F}"/>
   </bookViews>
   <sheets>
     <sheet name="all_results" sheetId="9" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="Graphs" sheetId="16" r:id="rId8"/>
     <sheet name="Experiment_time" sheetId="8" r:id="rId9"/>
     <sheet name="Learning" sheetId="2" r:id="rId10"/>
-    <sheet name="Questionnaires" sheetId="11" r:id="rId11"/>
-    <sheet name="Performance_overall" sheetId="15" r:id="rId12"/>
+    <sheet name="SBSOD" sheetId="10" r:id="rId11"/>
+    <sheet name="Questionnaires" sheetId="11" r:id="rId12"/>
+    <sheet name="Performance_overall" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="292">
   <si>
     <t>Free recall</t>
   </si>
@@ -335,6 +336,15 @@
     <t>Sign (if there is preference)</t>
   </si>
   <si>
+    <t>Answers - original</t>
+  </si>
+  <si>
+    <t>Answers - relevant questions inverted (marked in bold)</t>
+  </si>
+  <si>
+    <t>Overall score (higher is better)</t>
+  </si>
+  <si>
     <t>SBSOD</t>
   </si>
   <si>
@@ -468,6 +478,30 @@
   </si>
   <si>
     <t>Average estimated distance (non-scaled)</t>
+  </si>
+  <si>
+    <t>fMRI_Subj_01</t>
+  </si>
+  <si>
+    <t>fMRI_Subj_02</t>
+  </si>
+  <si>
+    <t>fMRI_Subj_04</t>
+  </si>
+  <si>
+    <t>fMRI_Subj_05</t>
+  </si>
+  <si>
+    <t>fMRI_Subj_06</t>
+  </si>
+  <si>
+    <t>fMRI_Subj_08</t>
+  </si>
+  <si>
+    <t>fMRI_Subj_09</t>
+  </si>
+  <si>
+    <t>fMRI_Subj_11</t>
   </si>
   <si>
     <t>First day</t>
@@ -15230,32 +15264,32 @@
         <v>31</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -15299,10 +15333,10 @@
         <v>79</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>78</v>
@@ -15323,19 +15357,19 @@
         <v>73</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AB2" s="11" t="s">
         <v>65</v>
@@ -15353,7 +15387,7 @@
         <v>31</v>
       </c>
       <c r="AG2" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>0</v>
@@ -15370,7 +15404,7 @@
     </row>
     <row r="3" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C3" s="27">
         <f>Experiment_time!B2</f>
@@ -15468,9 +15502,9 @@
         <f>JRD_fMRI!L2</f>
         <v>-6</v>
       </c>
-      <c r="AA3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA3" s="12">
+        <f>SBSOD!R2</f>
+        <v>3.2</v>
       </c>
       <c r="AB3" s="12">
         <f>Questionnaires!Y4</f>
@@ -15519,7 +15553,7 @@
     </row>
     <row r="4" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C4" s="27">
         <f>Experiment_time!B3</f>
@@ -15617,9 +15651,9 @@
         <f>JRD_fMRI!L3</f>
         <v>4</v>
       </c>
-      <c r="AA4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA4" s="12">
+        <f>SBSOD!R3</f>
+        <v>3.4</v>
       </c>
       <c r="AB4" s="12">
         <f>Questionnaires!Y5</f>
@@ -15668,7 +15702,7 @@
     </row>
     <row r="5" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C5" s="27">
         <f>Experiment_time!B4</f>
@@ -15766,9 +15800,9 @@
         <f>JRD_fMRI!L4</f>
         <v>7</v>
       </c>
-      <c r="AA5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA5" s="12">
+        <f>SBSOD!R4</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AB5" s="12">
         <f>Questionnaires!Y6</f>
@@ -15817,7 +15851,7 @@
     </row>
     <row r="6" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C6" s="27">
         <f>Experiment_time!B5</f>
@@ -15915,9 +15949,9 @@
         <f>JRD_fMRI!L5</f>
         <v>-10</v>
       </c>
-      <c r="AA6" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA6" s="12">
+        <f>SBSOD!R5</f>
+        <v>5.4666666666666668</v>
       </c>
       <c r="AB6" s="12">
         <f>Questionnaires!Y7</f>
@@ -15966,7 +16000,7 @@
     </row>
     <row r="7" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C7" s="27">
         <f>Experiment_time!B6</f>
@@ -16064,9 +16098,9 @@
         <f>JRD_fMRI!L6</f>
         <v>-8</v>
       </c>
-      <c r="AA7" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA7" s="12">
+        <f>SBSOD!R6</f>
+        <v>5.1333333333333337</v>
       </c>
       <c r="AB7" s="12">
         <f>Questionnaires!Y8</f>
@@ -16115,7 +16149,7 @@
     </row>
     <row r="8" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C8" s="27">
         <f>Experiment_time!B7</f>
@@ -16213,9 +16247,9 @@
         <f>JRD_fMRI!L7</f>
         <v>-2</v>
       </c>
-      <c r="AA8" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA8" s="12">
+        <f>SBSOD!R7</f>
+        <v>3</v>
       </c>
       <c r="AB8" s="12">
         <f>Questionnaires!Y9</f>
@@ -16264,7 +16298,7 @@
     </row>
     <row r="9" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C9" s="27">
         <f>Experiment_time!B8</f>
@@ -16362,9 +16396,9 @@
         <f>JRD_fMRI!L8</f>
         <v>8</v>
       </c>
-      <c r="AA9" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA9" s="12">
+        <f>SBSOD!R8</f>
+        <v>4.0666666666666664</v>
       </c>
       <c r="AB9" s="12">
         <f>Questionnaires!Y10</f>
@@ -16413,7 +16447,7 @@
     </row>
     <row r="10" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C10" s="27">
         <f>Experiment_time!B9</f>
@@ -16511,9 +16545,9 @@
         <f>JRD_fMRI!L9</f>
         <v>7</v>
       </c>
-      <c r="AA10" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA10" s="12">
+        <f>SBSOD!R9</f>
+        <v>5.333333333333333</v>
       </c>
       <c r="AB10" s="12">
         <f>Questionnaires!Y11</f>
@@ -16562,7 +16596,7 @@
     </row>
     <row r="11" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C11" s="27">
         <f>Experiment_time!B10</f>
@@ -16660,9 +16694,9 @@
         <f>JRD_fMRI!L10</f>
         <v>-4</v>
       </c>
-      <c r="AA11" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA11" s="12">
+        <f>SBSOD!R10</f>
+        <v>0</v>
       </c>
       <c r="AB11" s="12">
         <f>Questionnaires!Y12</f>
@@ -16711,7 +16745,7 @@
     </row>
     <row r="12" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C12" s="27">
         <f>Experiment_time!B11</f>
@@ -16809,9 +16843,9 @@
         <f>JRD_fMRI!L11</f>
         <v>7</v>
       </c>
-      <c r="AA12" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA12" s="12">
+        <f>SBSOD!R11</f>
+        <v>0</v>
       </c>
       <c r="AB12" s="12">
         <f>Questionnaires!Y13</f>
@@ -16860,7 +16894,7 @@
     </row>
     <row r="13" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C13" s="27">
         <f>Experiment_time!B12</f>
@@ -16958,9 +16992,9 @@
         <f>JRD_fMRI!L12</f>
         <v>10</v>
       </c>
-      <c r="AA13" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA13" s="12">
+        <f>SBSOD!R12</f>
+        <v>0</v>
       </c>
       <c r="AB13" s="12">
         <f>Questionnaires!Y14</f>
@@ -17009,7 +17043,7 @@
     </row>
     <row r="14" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C14" s="27">
         <f>Experiment_time!B13</f>
@@ -17107,9 +17141,9 @@
         <f>JRD_fMRI!L13</f>
         <v>12</v>
       </c>
-      <c r="AA14" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA14" s="12">
+        <f>SBSOD!R13</f>
+        <v>0</v>
       </c>
       <c r="AB14" s="12">
         <f>Questionnaires!Y15</f>
@@ -17158,7 +17192,7 @@
     </row>
     <row r="15" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C15" s="27">
         <f>Experiment_time!B14</f>
@@ -17256,9 +17290,9 @@
         <f>JRD_fMRI!L14</f>
         <v>1</v>
       </c>
-      <c r="AA15" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA15" s="12">
+        <f>SBSOD!R14</f>
+        <v>0</v>
       </c>
       <c r="AB15" s="12">
         <f>Questionnaires!Y16</f>
@@ -17307,7 +17341,7 @@
     </row>
     <row r="16" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C16" s="27">
         <f>Experiment_time!B15</f>
@@ -17405,9 +17439,9 @@
         <f>JRD_fMRI!L15</f>
         <v>3</v>
       </c>
-      <c r="AA16" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA16" s="12">
+        <f>SBSOD!R15</f>
+        <v>0</v>
       </c>
       <c r="AB16" s="12">
         <f>Questionnaires!Y17</f>
@@ -17456,7 +17490,7 @@
     </row>
     <row r="17" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="37" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C17" s="27">
         <f>Experiment_time!B16</f>
@@ -17554,9 +17588,9 @@
         <f>JRD_fMRI!L16</f>
         <v>-8</v>
       </c>
-      <c r="AA17" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA17" s="12">
+        <f>SBSOD!R16</f>
+        <v>0</v>
       </c>
       <c r="AB17" s="12">
         <f>Questionnaires!Y18</f>
@@ -17605,7 +17639,7 @@
     </row>
     <row r="18" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C18" s="27">
         <f>Experiment_time!B17</f>
@@ -17703,9 +17737,9 @@
         <f>JRD_fMRI!L17</f>
         <v>-8</v>
       </c>
-      <c r="AA18" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA18" s="12">
+        <f>SBSOD!R17</f>
+        <v>0</v>
       </c>
       <c r="AB18" s="12">
         <f>Questionnaires!Y19</f>
@@ -17754,7 +17788,7 @@
     </row>
     <row r="19" spans="1:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="37" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C19" s="27">
         <f>Experiment_time!B18</f>
@@ -17852,9 +17886,9 @@
         <f>JRD_fMRI!L18</f>
         <v>15</v>
       </c>
-      <c r="AA19" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA19" s="12">
+        <f>SBSOD!R18</f>
+        <v>0</v>
       </c>
       <c r="AB19" s="12">
         <f>Questionnaires!Y20</f>
@@ -17903,7 +17937,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" s="38" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="27">
@@ -18002,9 +18036,9 @@
         <f>JRD_fMRI!L19</f>
         <v>-10</v>
       </c>
-      <c r="AA20" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA20" s="12">
+        <f>SBSOD!R19</f>
+        <v>0</v>
       </c>
       <c r="AB20" s="12">
         <f>Questionnaires!Y21</f>
@@ -18053,7 +18087,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" s="37" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="27">
@@ -18152,9 +18186,9 @@
         <f>JRD_fMRI!L20</f>
         <v>-10</v>
       </c>
-      <c r="AA21" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA21" s="12">
+        <f>SBSOD!R20</f>
+        <v>0</v>
       </c>
       <c r="AB21" s="12">
         <f>Questionnaires!Y22</f>
@@ -18203,7 +18237,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" s="37" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="27">
@@ -18302,9 +18336,9 @@
         <f>JRD_fMRI!L21</f>
         <v>4</v>
       </c>
-      <c r="AA22" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA22" s="12">
+        <f>SBSOD!R21</f>
+        <v>0</v>
       </c>
       <c r="AB22" s="12">
         <f>Questionnaires!Y23</f>
@@ -18353,7 +18387,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" s="38" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="27">
@@ -18452,9 +18486,9 @@
         <f>JRD_fMRI!L22</f>
         <v>-4</v>
       </c>
-      <c r="AA23" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA23" s="12">
+        <f>SBSOD!R22</f>
+        <v>0</v>
       </c>
       <c r="AB23" s="12">
         <f>Questionnaires!Y24</f>
@@ -18503,7 +18537,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="37" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="27">
@@ -18602,9 +18636,9 @@
         <f>JRD_fMRI!L23</f>
         <v>-8</v>
       </c>
-      <c r="AA24" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA24" s="12">
+        <f>SBSOD!R23</f>
+        <v>0</v>
       </c>
       <c r="AB24" s="12">
         <f>Questionnaires!Y25</f>
@@ -18653,7 +18687,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="27">
@@ -18752,9 +18786,9 @@
         <f>JRD_fMRI!L24</f>
         <v>-3</v>
       </c>
-      <c r="AA25" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA25" s="12">
+        <f>SBSOD!R24</f>
+        <v>0</v>
       </c>
       <c r="AB25" s="12">
         <f>Questionnaires!Y26</f>
@@ -18803,7 +18837,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" s="38" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="27">
@@ -18902,9 +18936,9 @@
         <f>JRD_fMRI!L25</f>
         <v>6</v>
       </c>
-      <c r="AA26" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AA26" s="12">
+        <f>SBSOD!R25</f>
+        <v>0</v>
       </c>
       <c r="AB26" s="12">
         <f>Questionnaires!Y27</f>
@@ -18965,7 +18999,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.35">
@@ -18988,32 +19022,32 @@
         <v>31</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.35">
@@ -19055,10 +19089,10 @@
         <v>79</v>
       </c>
       <c r="O31" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q31" s="11" t="s">
         <v>78</v>
@@ -19079,19 +19113,19 @@
         <v>73</v>
       </c>
       <c r="W31" s="11" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="X31" s="11" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="Y31" s="11" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>65</v>
@@ -19109,7 +19143,7 @@
         <v>31</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AH31" s="1" t="s">
         <v>0</v>
@@ -19227,9 +19261,9 @@
         <f t="shared" si="0"/>
         <v>-0.17088131482148144</v>
       </c>
-      <c r="AA32" s="40" t="e">
+      <c r="AA32" s="40">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>-0.13973455478146651</v>
       </c>
       <c r="AB32" s="40">
         <f t="shared" si="0"/>
@@ -19376,9 +19410,9 @@
         <f t="shared" si="1"/>
         <v>-0.15025844830262144</v>
       </c>
-      <c r="AA33" s="40" t="e">
+      <c r="AA33" s="40">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>-3.2047471923669801E-2</v>
       </c>
       <c r="AB33" s="40">
         <f t="shared" si="1"/>
@@ -19525,9 +19559,9 @@
         <f t="shared" si="2"/>
         <v>-0.19885725129831322</v>
       </c>
-      <c r="AA34" s="40" t="e">
+      <c r="AA34" s="40">
         <f t="shared" si="2"/>
-        <v>#REF!</v>
+        <v>0.38940853189126662</v>
       </c>
       <c r="AB34" s="40">
         <f t="shared" si="2"/>
@@ -19674,9 +19708,9 @@
         <f t="shared" si="3"/>
         <v>-0.28815948586475848</v>
       </c>
-      <c r="AA35" s="40" t="e">
+      <c r="AA35" s="40">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>0.29621209814241739</v>
       </c>
       <c r="AB35" s="40">
         <f t="shared" si="3"/>
@@ -19826,9 +19860,9 @@
         <f t="shared" si="4"/>
         <v>-0.22321315432789632</v>
       </c>
-      <c r="AA36" s="40" t="e">
+      <c r="AA36" s="40">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>-0.1998273711845435</v>
       </c>
       <c r="AB36" s="40">
         <f t="shared" si="4"/>
@@ -19978,9 +20012,9 @@
         <f t="shared" si="5"/>
         <v>0.28660958506736756</v>
       </c>
-      <c r="AA37" s="40" t="e">
+      <c r="AA37" s="40">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>0.36337741419113267</v>
       </c>
       <c r="AB37" s="40">
         <f t="shared" si="5"/>
@@ -20127,9 +20161,9 @@
         <f t="shared" si="6"/>
         <v>-0.28464095582774984</v>
       </c>
-      <c r="AA38" s="40" t="e">
+      <c r="AA38" s="40">
         <f t="shared" si="6"/>
-        <v>#REF!</v>
+        <v>-0.15030942332567215</v>
       </c>
       <c r="AB38" s="40">
         <f t="shared" si="6"/>
@@ -20279,9 +20313,9 @@
         <f t="shared" si="7"/>
         <v>0.37562310858239684</v>
       </c>
-      <c r="AA39" s="40" t="e">
+      <c r="AA39" s="40">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
+        <v>0.11662167632770699</v>
       </c>
       <c r="AB39" s="40">
         <f t="shared" si="7"/>
@@ -20428,9 +20462,9 @@
         <f t="shared" si="8"/>
         <v>-0.37562310858239673</v>
       </c>
-      <c r="AA40" s="40" t="e">
+      <c r="AA40" s="40">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
+        <v>-0.11662167632770697</v>
       </c>
       <c r="AB40" s="40">
         <f t="shared" si="8"/>
@@ -20577,9 +20611,9 @@
         <f t="shared" si="9"/>
         <v>-0.22423768522324133</v>
       </c>
-      <c r="AA41" s="40" t="e">
+      <c r="AA41" s="40">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
+        <v>7.5905970639247047E-2</v>
       </c>
       <c r="AB41" s="40">
         <f t="shared" si="9"/>
@@ -20726,9 +20760,9 @@
         <f t="shared" si="10"/>
         <v>0.14200954714941197</v>
       </c>
-      <c r="AA42" s="40" t="e">
+      <c r="AA42" s="40">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
+        <v>5.2123429133715052E-2</v>
       </c>
       <c r="AB42" s="40">
         <f t="shared" si="10"/>
@@ -20875,9 +20909,9 @@
         <f t="shared" si="11"/>
         <v>-0.41471192718920841</v>
       </c>
-      <c r="AA43" s="40" t="e">
+      <c r="AA43" s="40">
         <f t="shared" si="11"/>
-        <v>#REF!</v>
+        <v>-0.12509299547157024</v>
       </c>
       <c r="AB43" s="40">
         <f t="shared" si="11"/>
@@ -20926,7 +20960,7 @@
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B44" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C44" s="40">
         <f>CORREL($O$3:$O$26,C$3:C$26)</f>
@@ -21024,9 +21058,9 @@
         <f t="shared" si="12"/>
         <v>-0.29146799942989743</v>
       </c>
-      <c r="AA44" s="40" t="e">
+      <c r="AA44" s="40">
         <f t="shared" si="12"/>
-        <v>#REF!</v>
+        <v>-3.1683967532848127E-2</v>
       </c>
       <c r="AB44" s="40">
         <f t="shared" si="12"/>
@@ -21075,7 +21109,7 @@
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B45" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C45" s="40">
         <f>CORREL($P$3:$P$26,C$3:C$26)</f>
@@ -21173,9 +21207,9 @@
         <f t="shared" si="13"/>
         <v>-0.40716185577111963</v>
       </c>
-      <c r="AA45" s="40" t="e">
+      <c r="AA45" s="40">
         <f t="shared" si="13"/>
-        <v>#REF!</v>
+        <v>-0.16941583894386911</v>
       </c>
       <c r="AB45" s="40">
         <f t="shared" si="13"/>
@@ -21322,9 +21356,9 @@
         <f t="shared" si="14"/>
         <v>0.41358340307447644</v>
       </c>
-      <c r="AA46" s="40" t="e">
+      <c r="AA46" s="40">
         <f t="shared" si="14"/>
-        <v>#REF!</v>
+        <v>0.18152393653029869</v>
       </c>
       <c r="AB46" s="40">
         <f t="shared" si="14"/>
@@ -21471,9 +21505,9 @@
         <f t="shared" si="15"/>
         <v>0.22458632302784381</v>
       </c>
-      <c r="AA47" s="40" t="e">
+      <c r="AA47" s="40">
         <f t="shared" si="15"/>
-        <v>#REF!</v>
+        <v>0.19379874450212048</v>
       </c>
       <c r="AB47" s="40">
         <f t="shared" si="15"/>
@@ -21620,9 +21654,9 @@
         <f t="shared" si="16"/>
         <v>0.31761188299489479</v>
       </c>
-      <c r="AA48" s="40" t="e">
+      <c r="AA48" s="40">
         <f t="shared" si="16"/>
-        <v>#REF!</v>
+        <v>0.17353701820026454</v>
       </c>
       <c r="AB48" s="40">
         <f t="shared" si="16"/>
@@ -21769,9 +21803,9 @@
         <f t="shared" si="17"/>
         <v>-9.6653454922378743E-2</v>
       </c>
-      <c r="AA49" s="40" t="e">
+      <c r="AA49" s="40">
         <f t="shared" si="17"/>
-        <v>#REF!</v>
+        <v>1.6523313492986681E-2</v>
       </c>
       <c r="AB49" s="40">
         <f t="shared" si="17"/>
@@ -21921,9 +21955,9 @@
         <f t="shared" si="18"/>
         <v>0.34762810709613617</v>
       </c>
-      <c r="AA50" s="40" t="e">
+      <c r="AA50" s="40">
         <f t="shared" si="18"/>
-        <v>#REF!</v>
+        <v>0.17865676210101317</v>
       </c>
       <c r="AB50" s="40">
         <f t="shared" si="18"/>
@@ -22070,9 +22104,9 @@
         <f t="shared" si="19"/>
         <v>-0.10488239037691763</v>
       </c>
-      <c r="AA51" s="40" t="e">
+      <c r="AA51" s="40">
         <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <v>-0.22269967173619915</v>
       </c>
       <c r="AB51" s="40">
         <f t="shared" si="19"/>
@@ -22121,10 +22155,10 @@
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C52" s="40">
         <f>CORREL($W$3:$W$26,C$3:C$26)</f>
@@ -22222,9 +22256,9 @@
         <f t="shared" si="20"/>
         <v>-3.5524255942637174E-2</v>
       </c>
-      <c r="AA52" s="40" t="e">
+      <c r="AA52" s="40">
         <f t="shared" si="20"/>
-        <v>#REF!</v>
+        <v>0.22524902868274344</v>
       </c>
       <c r="AB52" s="40">
         <f t="shared" si="20"/>
@@ -22273,10 +22307,10 @@
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C53" s="40">
         <f>CORREL($X$3:$X$26,C$3:C$26)</f>
@@ -22374,9 +22408,9 @@
         <f t="shared" si="21"/>
         <v>9.0934370312091596E-3</v>
       </c>
-      <c r="AA53" s="40" t="e">
+      <c r="AA53" s="40">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
+        <v>0.23120228111229021</v>
       </c>
       <c r="AB53" s="40">
         <f t="shared" si="21"/>
@@ -22425,10 +22459,10 @@
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C54" s="40">
         <f>CORREL($Y$3:$Y$26,C$3:C$26)</f>
@@ -22526,9 +22560,9 @@
         <f t="shared" si="22"/>
         <v>0.44273609733325381</v>
       </c>
-      <c r="AA54" s="40" t="e">
+      <c r="AA54" s="40">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
+        <v>0.20194040592082274</v>
       </c>
       <c r="AB54" s="40">
         <f t="shared" si="22"/>
@@ -22577,7 +22611,7 @@
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C55" s="40">
         <f>CORREL($Z$3:$Z$26,C$3:C$26)</f>
@@ -22675,9 +22709,9 @@
         <f t="shared" si="23"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AA55" s="40" t="e">
+      <c r="AA55" s="40">
         <f t="shared" si="23"/>
-        <v>#REF!</v>
+        <v>-2.5000938434780511E-2</v>
       </c>
       <c r="AB55" s="40">
         <f t="shared" si="23"/>
@@ -22726,159 +22760,159 @@
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="40" t="e">
+        <v>103</v>
+      </c>
+      <c r="C56" s="40">
         <f>CORREL($AA$3:$AA$26,C$3:C$26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="40" t="e">
+        <v>-0.13973455478146651</v>
+      </c>
+      <c r="D56" s="40">
         <f t="shared" ref="D56:AL56" si="24">CORREL($AA$3:$AA$26,D$3:D$26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="40" t="e">
+        <v>-3.2047471923669801E-2</v>
+      </c>
+      <c r="E56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="40" t="e">
+        <v>0.38940853189126662</v>
+      </c>
+      <c r="F56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="40" t="e">
+        <v>0.29621209814241739</v>
+      </c>
+      <c r="G56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="40" t="e">
+        <v>-0.1998273711845435</v>
+      </c>
+      <c r="H56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="40" t="e">
+        <v>0.36337741419113267</v>
+      </c>
+      <c r="I56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="40" t="e">
+        <v>-0.15030942332567215</v>
+      </c>
+      <c r="J56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="40" t="e">
+        <v>0.11662167632770699</v>
+      </c>
+      <c r="K56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="40" t="e">
+        <v>-0.11662167632770697</v>
+      </c>
+      <c r="L56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="40" t="e">
+        <v>7.5905970639247047E-2</v>
+      </c>
+      <c r="M56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N56" s="40" t="e">
+        <v>5.2123429133715052E-2</v>
+      </c>
+      <c r="N56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O56" s="40" t="e">
+        <v>-0.12509299547157024</v>
+      </c>
+      <c r="O56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P56" s="40" t="e">
+        <v>-3.1683967532848127E-2</v>
+      </c>
+      <c r="P56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q56" s="40" t="e">
+        <v>-0.16941583894386911</v>
+      </c>
+      <c r="Q56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R56" s="40" t="e">
+        <v>0.18152393653029869</v>
+      </c>
+      <c r="R56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S56" s="40" t="e">
+        <v>0.19379874450212048</v>
+      </c>
+      <c r="S56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T56" s="40" t="e">
+        <v>0.17353701820026454</v>
+      </c>
+      <c r="T56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U56" s="40" t="e">
+        <v>1.6523313492986681E-2</v>
+      </c>
+      <c r="U56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V56" s="40" t="e">
+        <v>0.17865676210101317</v>
+      </c>
+      <c r="V56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W56" s="40" t="e">
+        <v>-0.22269967173619915</v>
+      </c>
+      <c r="W56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X56" s="40" t="e">
+        <v>0.22524902868274344</v>
+      </c>
+      <c r="X56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y56" s="40" t="e">
+        <v>0.23120228111229021</v>
+      </c>
+      <c r="Y56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z56" s="40" t="e">
+        <v>0.20194040592082274</v>
+      </c>
+      <c r="Z56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA56" s="40" t="e">
+        <v>-2.5000938434780511E-2</v>
+      </c>
+      <c r="AA56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB56" s="40" t="e">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="AB56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC56" s="40" t="e">
+        <v>0.16839839998666264</v>
+      </c>
+      <c r="AC56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD56" s="40" t="e">
+        <v>0.27111748422011733</v>
+      </c>
+      <c r="AD56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE56" s="40" t="e">
+        <v>-8.1949902656578505E-2</v>
+      </c>
+      <c r="AE56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AF56" s="40" t="e">
+        <v>0.39977932973905467</v>
+      </c>
+      <c r="AF56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AG56" s="40" t="e">
+        <v>0.36824196890577904</v>
+      </c>
+      <c r="AG56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AH56" s="40" t="e">
+        <v>0.12268902453617525</v>
+      </c>
+      <c r="AH56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AI56" s="40" t="e">
+        <v>-8.4930362962276629E-2</v>
+      </c>
+      <c r="AI56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ56" s="40" t="e">
+        <v>-0.1107005704266711</v>
+      </c>
+      <c r="AJ56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AK56" s="40" t="e">
+        <v>-4.3484984595774601E-2</v>
+      </c>
+      <c r="AK56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AL56" s="40" t="e">
+        <v>-1.044211747321707E-2</v>
+      </c>
+      <c r="AL56" s="40">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
+        <v>-9.687808526573612E-3</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>65</v>
@@ -22979,9 +23013,9 @@
         <f t="shared" si="25"/>
         <v>-0.18015130345422606</v>
       </c>
-      <c r="AA57" s="40" t="e">
+      <c r="AA57" s="40">
         <f t="shared" si="25"/>
-        <v>#REF!</v>
+        <v>0.16839839998666264</v>
       </c>
       <c r="AB57" s="40">
         <f t="shared" si="25"/>
@@ -23129,9 +23163,9 @@
         <f t="shared" si="26"/>
         <v>0.10979007354305143</v>
       </c>
-      <c r="AA58" s="40" t="e">
+      <c r="AA58" s="40">
         <f t="shared" si="26"/>
-        <v>#REF!</v>
+        <v>0.27111748422011733</v>
       </c>
       <c r="AB58" s="40">
         <f t="shared" si="26"/>
@@ -23279,9 +23313,9 @@
         <f t="shared" si="27"/>
         <v>0.3690092998970419</v>
       </c>
-      <c r="AA59" s="40" t="e">
+      <c r="AA59" s="40">
         <f t="shared" si="27"/>
-        <v>#REF!</v>
+        <v>-8.1949902656578505E-2</v>
       </c>
       <c r="AB59" s="40">
         <f t="shared" si="27"/>
@@ -23429,9 +23463,9 @@
         <f t="shared" si="28"/>
         <v>-0.22509718733479878</v>
       </c>
-      <c r="AA60" s="40" t="e">
+      <c r="AA60" s="40">
         <f t="shared" si="28"/>
-        <v>#REF!</v>
+        <v>0.39977932973905467</v>
       </c>
       <c r="AB60" s="40">
         <f t="shared" si="28"/>
@@ -23579,9 +23613,9 @@
         <f t="shared" si="29"/>
         <v>-7.3522398812805853E-2</v>
       </c>
-      <c r="AA61" s="40" t="e">
+      <c r="AA61" s="40">
         <f t="shared" si="29"/>
-        <v>#REF!</v>
+        <v>0.36824196890577904</v>
       </c>
       <c r="AB61" s="40">
         <f t="shared" si="29"/>
@@ -23630,10 +23664,10 @@
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C62" s="40">
         <f>CORREL($AG$3:$AG$26,C$3:C$26)</f>
@@ -23731,9 +23765,9 @@
         <f t="shared" si="30"/>
         <v>0.21133786885716752</v>
       </c>
-      <c r="AA62" s="40" t="e">
+      <c r="AA62" s="40">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
+        <v>0.12268902453617525</v>
       </c>
       <c r="AB62" s="40">
         <f t="shared" si="30"/>
@@ -23782,7 +23816,7 @@
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>0</v>
@@ -23883,9 +23917,9 @@
         <f t="shared" si="31"/>
         <v>-0.2763462470414666</v>
       </c>
-      <c r="AA63" s="40" t="e">
+      <c r="AA63" s="40">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
+        <v>-8.4930362962276629E-2</v>
       </c>
       <c r="AB63" s="40">
         <f t="shared" si="31"/>
@@ -24032,9 +24066,9 @@
         <f t="shared" si="32"/>
         <v>0.17271322758454161</v>
       </c>
-      <c r="AA64" s="40" t="e">
+      <c r="AA64" s="40">
         <f t="shared" si="32"/>
-        <v>#REF!</v>
+        <v>-0.1107005704266711</v>
       </c>
       <c r="AB64" s="40">
         <f t="shared" si="32"/>
@@ -24181,9 +24215,9 @@
         <f t="shared" si="33"/>
         <v>-0.32534017607312926</v>
       </c>
-      <c r="AA65" s="40" t="e">
+      <c r="AA65" s="40">
         <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>-4.3484984595774601E-2</v>
       </c>
       <c r="AB65" s="40">
         <f t="shared" si="33"/>
@@ -24330,9 +24364,9 @@
         <f t="shared" si="34"/>
         <v>-0.30633004997866642</v>
       </c>
-      <c r="AA66" s="40" t="e">
+      <c r="AA66" s="40">
         <f t="shared" si="34"/>
-        <v>#REF!</v>
+        <v>-1.044211747321707E-2</v>
       </c>
       <c r="AB66" s="40">
         <f t="shared" si="34"/>
@@ -24381,7 +24415,7 @@
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C67" s="40">
         <f>CORREL($AL$3:$AL$26,C$3:C$26)</f>
@@ -24479,9 +24513,9 @@
         <f t="shared" si="35"/>
         <v>0.25467472555848969</v>
       </c>
-      <c r="AA67" s="40" t="e">
+      <c r="AA67" s="40">
         <f t="shared" si="35"/>
-        <v>#REF!</v>
+        <v>-9.687808526573612E-3</v>
       </c>
       <c r="AB67" s="40">
         <f t="shared" si="35"/>
@@ -24571,7 +24605,7 @@
         <v>80</v>
       </c>
       <c r="J78" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.35">
@@ -24579,7 +24613,7 @@
         <v>95</v>
       </c>
       <c r="J79" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.35">
@@ -24587,7 +24621,7 @@
         <v>89</v>
       </c>
       <c r="J80" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
@@ -24595,7 +24629,7 @@
         <v>90</v>
       </c>
       <c r="J81" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
@@ -24603,7 +24637,7 @@
         <v>91</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
@@ -24611,7 +24645,7 @@
         <v>93</v>
       </c>
       <c r="J83" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -24664,13 +24698,13 @@
     </row>
     <row r="2" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C2" s="6" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>52</v>
@@ -24690,7 +24724,7 @@
         <v>24</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>26</v>
@@ -24731,16 +24765,16 @@
         <v>58</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="T3" s="7" t="s">
         <v>21</v>
@@ -24794,10 +24828,10 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C4" s="7">
         <v>100</v>
@@ -24905,7 +24939,7 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C5" s="7">
         <v>43</v>
@@ -24920,10 +24954,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J5" s="7">
         <v>18</v>
@@ -25000,10 +25034,10 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C6" s="7">
         <v>99</v>
@@ -25107,7 +25141,7 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C7" s="7">
         <v>36</v>
@@ -25122,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J7" s="7">
         <v>16</v>
@@ -25201,10 +25235,10 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C8" s="7">
         <v>95</v>
@@ -25308,7 +25342,7 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C9" s="7">
         <v>46</v>
@@ -25323,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J9" s="7">
         <v>16</v>
@@ -25403,10 +25437,10 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C10" s="7">
         <v>99</v>
@@ -25510,7 +25544,7 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C11" s="7">
         <v>48</v>
@@ -25528,7 +25562,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J11" s="7">
         <v>16</v>
@@ -25610,10 +25644,10 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C12" s="7">
         <v>83</v>
@@ -25717,7 +25751,7 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C13" s="7">
         <v>43</v>
@@ -25732,10 +25766,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J13" s="7">
         <v>16</v>
@@ -25810,10 +25844,10 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C14" s="7">
         <v>87</v>
@@ -25916,7 +25950,7 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C15" s="7">
         <v>54</v>
@@ -25934,7 +25968,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J15" s="7">
         <v>16</v>
@@ -26014,10 +26048,10 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C16" s="7">
         <v>97</v>
@@ -26121,7 +26155,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C17" s="7">
         <v>45</v>
@@ -26136,10 +26170,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J17" s="7">
         <v>16</v>
@@ -26214,10 +26248,10 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C18" s="7">
         <v>115</v>
@@ -26320,7 +26354,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C19" s="7">
         <v>59</v>
@@ -26338,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J19" s="7">
         <v>16</v>
@@ -26418,10 +26452,10 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" s="38" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C20" s="7">
         <v>81</v>
@@ -26522,7 +26556,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C21" s="7">
         <v>49</v>
@@ -26540,7 +26574,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J21" s="7">
         <v>16</v>
@@ -26618,10 +26652,10 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" s="37" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C22" s="7">
         <v>93</v>
@@ -26722,7 +26756,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C23" s="7">
         <v>66</v>
@@ -26823,10 +26857,10 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="38" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C24" s="7">
         <v>113</v>
@@ -26927,7 +26961,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="Z25" s="8"/>
       <c r="AC25" s="7">
@@ -26943,10 +26977,10 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A26" s="37" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C26" s="7">
         <v>81</v>
@@ -27047,7 +27081,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B27" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C27" s="7">
         <v>40</v>
@@ -27062,10 +27096,10 @@
         <v>0</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J27" s="7">
         <v>16</v>
@@ -27138,10 +27172,10 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" s="37" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C28" s="7">
         <v>131</v>
@@ -27242,7 +27276,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B29" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C29" s="7">
         <v>40</v>
@@ -27257,10 +27291,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J29" s="7">
         <v>16</v>
@@ -27333,10 +27367,10 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A30" s="38" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C30" s="7">
         <v>83</v>
@@ -27437,7 +27471,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B31" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C31" s="7">
         <v>34</v>
@@ -27452,10 +27486,10 @@
         <v>0</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J31" s="7">
         <v>16</v>
@@ -27528,10 +27562,10 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A32" s="37" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C32" s="7">
         <v>151</v>
@@ -27632,7 +27666,7 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B33" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C33" s="7">
         <v>47</v>
@@ -27647,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J33" s="7">
         <v>16</v>
@@ -27723,10 +27757,10 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A34" s="38" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C34" s="7">
         <v>133</v>
@@ -27827,7 +27861,7 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B35" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C35" s="7">
         <v>21</v>
@@ -27839,13 +27873,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J35" s="7">
         <v>16</v>
@@ -27913,10 +27947,10 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A36" s="37" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C36" s="7">
         <v>84</v>
@@ -28017,7 +28051,7 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C37" s="7">
         <v>60</v>
@@ -28035,7 +28069,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J37" s="7">
         <v>16</v>
@@ -28113,10 +28147,10 @@
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A38" s="38" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C38" s="7">
         <v>121</v>
@@ -28217,7 +28251,7 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B39" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C39" s="7">
         <v>57</v>
@@ -28235,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J39" s="7">
         <v>16</v>
@@ -28313,10 +28347,10 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A40" s="37" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C40" s="7">
         <v>147</v>
@@ -28417,7 +28451,7 @@
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B41" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C41" s="7">
         <v>50</v>
@@ -28435,7 +28469,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J41" s="7">
         <v>16</v>
@@ -28513,10 +28547,10 @@
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A42" s="37" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C42" s="7">
         <v>102</v>
@@ -28617,7 +28651,7 @@
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C43" s="7">
         <v>28</v>
@@ -28629,13 +28663,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J43" s="7">
         <v>16</v>
@@ -28703,10 +28737,10 @@
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A44" s="38" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C44" s="7">
         <v>282</v>
@@ -28807,7 +28841,7 @@
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B45" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C45" s="7">
         <v>60</v>
@@ -28825,7 +28859,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J45" s="7">
         <v>16</v>
@@ -28903,10 +28937,10 @@
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A46" s="37" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C46" s="7">
         <v>131</v>
@@ -29007,7 +29041,7 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B47" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C47" s="7">
         <v>30</v>
@@ -29019,13 +29053,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J47" s="7">
         <v>16</v>
@@ -29093,10 +29127,10 @@
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A48" s="38" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C48" s="7">
         <v>83</v>
@@ -29197,7 +29231,7 @@
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B49" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C49" s="7">
         <v>44</v>
@@ -29212,10 +29246,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J49" s="7">
         <v>16</v>
@@ -29288,10 +29322,10 @@
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A50" s="38" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C50" s="7">
         <v>87</v>
@@ -29392,7 +29426,7 @@
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B51" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C51" s="7">
         <v>59</v>
@@ -29410,7 +29444,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="J51" s="7">
         <v>16</v>
@@ -29667,6 +29701,1169 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB627A5-5538-4A13-8540-F35B9A9B205F}">
+  <dimension ref="A1:T36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X39" sqref="X39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="1">
+        <f>8-B29</f>
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:M2" si="0">C29</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:F2" si="1">8-D29</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H9" si="2">8-H29</f>
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J9" si="3">8-J29</f>
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <f>N29</f>
+        <v>5</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" ref="O2:O9" si="4">8-O29</f>
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2" si="5">P29</f>
+        <v>2</v>
+      </c>
+      <c r="R2" s="1">
+        <f>AVERAGE(B2:P2)</f>
+        <v>3.2</v>
+      </c>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B9" si="6">8-B30</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:M3" si="7">C30</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:F3" si="8">8-D30</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:P3" si="9">N30</f>
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3" si="10">AVERAGE(B3:P3)</f>
+        <v>3.4</v>
+      </c>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4" si="11">C31</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:F4" si="12">8-D31</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4" si="13">G31</f>
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4" si="14">I31</f>
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:N4" si="15">K31</f>
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4" si="16">P31</f>
+        <v>5</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" ref="R4:R9" si="17">AVERAGE(B4:P4)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5" si="18">C32</f>
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:F5" si="19">8-D32</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5" si="20">G32</f>
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5" si="21">I32</f>
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:N5" si="22">K32</f>
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5" si="23">P32</f>
+        <v>6</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="17"/>
+        <v>5.4666666666666668</v>
+      </c>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6" si="24">C33</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:F6" si="25">8-D33</f>
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6" si="26">G33</f>
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6" si="27">I33</f>
+        <v>6</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:N6" si="28">K33</f>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6" si="29">P33</f>
+        <v>5</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="17"/>
+        <v>5.1333333333333337</v>
+      </c>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7" si="30">C34</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:F7" si="31">8-D34</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7" si="32">G34</f>
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7" si="33">I34</f>
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:N7" si="34">K34</f>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7" si="35">P34</f>
+        <v>2</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8" si="36">C35</f>
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:F8" si="37">8-D35</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8" si="38">G35</f>
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8" si="39">I35</f>
+        <v>5</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:N8" si="40">K35</f>
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8" si="41">P35</f>
+        <v>4</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="17"/>
+        <v>4.0666666666666664</v>
+      </c>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9" si="42">C36</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9:F9" si="43">8-D36</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="43"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9" si="44">G36</f>
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9" si="45">I36</f>
+        <v>6</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:N9" si="46">K36</f>
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="46"/>
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="46"/>
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="46"/>
+        <v>7</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9" si="47">P36</f>
+        <v>6</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="17"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="39"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="39"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+      <c r="P31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>6</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>6</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>4</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>6</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>5</v>
+      </c>
+      <c r="O35">
+        <v>6</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>7</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>7</v>
+      </c>
+      <c r="N36">
+        <v>7</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1A30DE-B62E-4401-A987-179419191458}">
   <dimension ref="A1:AY30"/>
   <sheetViews>
@@ -29704,22 +30901,22 @@
   <sheetData>
     <row r="1" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AI1" s="14"/>
       <c r="AU1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>65</v>
@@ -29737,10 +30934,10 @@
         <v>31</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>0</v>
@@ -29773,52 +30970,52 @@
         <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>65</v>
@@ -29836,66 +31033,66 @@
         <v>31</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -29975,7 +31172,7 @@
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B5" s="14"/>
       <c r="I5">
@@ -30085,7 +31282,7 @@
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -30182,7 +31379,7 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -30261,7 +31458,7 @@
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -30367,7 +31564,7 @@
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -30464,7 +31661,7 @@
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -30555,7 +31752,7 @@
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -30659,7 +31856,7 @@
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -30747,7 +31944,7 @@
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -30835,7 +32032,7 @@
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -30923,7 +32120,7 @@
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -31011,7 +32208,7 @@
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -31099,7 +32296,7 @@
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -31187,7 +32384,7 @@
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -31272,7 +32469,7 @@
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -31360,7 +32557,7 @@
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A20" s="37" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -31448,7 +32645,7 @@
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A21" s="38" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -31536,7 +32733,7 @@
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A22" s="37" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="Y22">
         <v>2</v>
@@ -31618,7 +32815,7 @@
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A23" s="37" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="Y23">
         <v>6</v>
@@ -31700,7 +32897,7 @@
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A24" s="38" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="Y24">
         <v>5</v>
@@ -31782,7 +32979,7 @@
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A25" s="37" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="Y25">
         <v>2</v>
@@ -31852,7 +33049,7 @@
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A26" s="38" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="Y26">
         <v>3</v>
@@ -31934,7 +33131,7 @@
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A27" s="38" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="Y27">
         <v>2</v>
@@ -32016,7 +33213,7 @@
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.35">
       <c r="G30" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H30" s="1">
         <f>SUM(H4:H27)</f>
@@ -32178,7 +33375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F9100F-2D41-F540-9407-3569AC21C11C}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
@@ -32206,19 +33403,19 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B2" s="62" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>28</v>
@@ -32236,42 +33433,42 @@
         <v>31</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B3" s="62" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="L3" s="51" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="M3" s="59" t="s">
         <v>38</v>
@@ -32282,7 +33479,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="60" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B4" s="63">
         <f>Localizer_fMRI!H2</f>
@@ -32337,7 +33534,7 @@
         <v>0.90625</v>
       </c>
       <c r="O4" s="66" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -32348,7 +33545,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="60" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B5" s="63">
         <f>Localizer_fMRI!H3</f>
@@ -32403,7 +33600,7 @@
         <v>0.828125</v>
       </c>
       <c r="O5" s="66" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -32414,7 +33611,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="73" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B6" s="63">
         <f>Localizer_fMRI!H4</f>
@@ -32469,7 +33666,7 @@
         <v>0.84375</v>
       </c>
       <c r="O6" s="58" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -32480,7 +33677,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="60" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B7" s="63">
         <f>Localizer_fMRI!H5</f>
@@ -32535,7 +33732,7 @@
         <v>0.765625</v>
       </c>
       <c r="O7" s="58" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -32546,7 +33743,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="60" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B8" s="63">
         <f>Localizer_fMRI!H6</f>
@@ -32610,7 +33807,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="60" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B9" s="63">
         <f>Localizer_fMRI!H7</f>
@@ -32674,7 +33871,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B10" s="63">
         <f>Localizer_fMRI!H8</f>
@@ -32729,7 +33926,7 @@
         <v>0.828125</v>
       </c>
       <c r="O10" s="66" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -32740,7 +33937,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="60" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B11" s="63">
         <f>Localizer_fMRI!H9</f>
@@ -32804,7 +34001,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="58" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B12" s="63">
         <f>Localizer_fMRI!H10</f>
@@ -32859,12 +34056,12 @@
         <v>0.875</v>
       </c>
       <c r="O12" s="66" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="60" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B13" s="63">
         <f>Localizer_fMRI!H11</f>
@@ -32928,7 +34125,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="58" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B14" s="64">
         <f>Localizer_fMRI!H12</f>
@@ -32983,7 +34180,7 @@
         <v>0.84375</v>
       </c>
       <c r="O14" s="58" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -32994,7 +34191,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="61" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B15" s="63">
         <f>Localizer_fMRI!H13</f>
@@ -33049,7 +34246,7 @@
         <v>0.90625</v>
       </c>
       <c r="O15" s="57" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -33060,7 +34257,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="60" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B16" s="63">
         <f>Localizer_fMRI!H14</f>
@@ -33115,7 +34312,7 @@
         <v>0.703125</v>
       </c>
       <c r="O16" s="58" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="Y16">
         <v>1</v>
@@ -33126,7 +34323,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B17" s="63">
         <f>Localizer_fMRI!H15</f>
@@ -33181,7 +34378,7 @@
         <v>0.953125</v>
       </c>
       <c r="O17" s="66" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -33192,7 +34389,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="60" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B18" s="63">
         <f>Localizer_fMRI!H16</f>
@@ -33247,7 +34444,7 @@
         <v>0.671875</v>
       </c>
       <c r="O18" s="58" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="Y18">
         <v>1</v>
@@ -33258,7 +34455,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="57" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B19" s="64">
         <f>Localizer_fMRI!H17</f>
@@ -33313,7 +34510,7 @@
         <v>0.671875</v>
       </c>
       <c r="O19" s="57" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -33324,7 +34521,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="60" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B20" s="63">
         <f>Localizer_fMRI!H18</f>
@@ -33388,7 +34585,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="58" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B21" s="65">
         <f>Localizer_fMRI!H19</f>
@@ -33443,7 +34640,7 @@
         <v>0.828125</v>
       </c>
       <c r="O21" s="57" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="Y21">
         <v>1</v>
@@ -33454,7 +34651,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="60" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B22" s="63">
         <f>Localizer_fMRI!H20</f>
@@ -33509,7 +34706,7 @@
         <v>0.875</v>
       </c>
       <c r="O22" s="66" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="Y22">
         <v>1</v>
@@ -33520,7 +34717,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="60" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B23" s="63">
         <f>Localizer_fMRI!H21</f>
@@ -33575,12 +34772,12 @@
         <v>0.6875</v>
       </c>
       <c r="O23" s="58" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="49" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B24" s="63">
         <f>Localizer_fMRI!H22</f>
@@ -33644,7 +34841,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="61" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B25" s="63">
         <f>Localizer_fMRI!H23</f>
@@ -33699,7 +34896,7 @@
         <v>0.5625</v>
       </c>
       <c r="O25" s="57" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="Y25">
         <v>1</v>
@@ -33710,7 +34907,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="49" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B26" s="63">
         <f>Localizer_fMRI!H24</f>
@@ -33765,7 +34962,7 @@
         <v>0.75</v>
       </c>
       <c r="O26" s="66" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="Y26">
         <v>1</v>
@@ -33776,7 +34973,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="49" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B27" s="63">
         <f>Localizer_fMRI!H25</f>
@@ -33848,7 +35045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D560AAA1-A1B2-4B5C-BAC1-565C464A1BC9}">
   <dimension ref="A1:BC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="63" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="AE1" zoomScale="63" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="BA5" sqref="BA5:BA28"/>
     </sheetView>
   </sheetViews>
@@ -33904,7 +35101,7 @@
         <v>64</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>36</v>
@@ -33922,10 +35119,10 @@
         <v>38</v>
       </c>
       <c r="AI2" s="11" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="AO2" s="11" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="AU2" s="11" t="s">
         <v>59</v>
@@ -34101,7 +35298,7 @@
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B5" s="24">
         <v>12.0205</v>
@@ -34249,7 +35446,7 @@
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B6" s="24">
         <v>17.224</v>
@@ -34397,7 +35594,7 @@
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B7" s="24">
         <v>9.5183333333334303</v>
@@ -34548,7 +35745,7 @@
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B8" s="24">
         <v>28.9891166666667</v>
@@ -34699,7 +35896,7 @@
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B9" s="24">
         <v>15.1041333333333</v>
@@ -34850,7 +36047,7 @@
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B10" s="24">
         <v>9.1458333333333393</v>
@@ -35001,7 +36198,7 @@
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B11" s="24">
         <v>7.0172833333333298</v>
@@ -35152,7 +36349,7 @@
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B12" s="24">
         <v>9.3537666666666599</v>
@@ -35303,7 +36500,7 @@
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B13" s="24">
         <v>21.076546666666701</v>
@@ -35435,7 +36632,7 @@
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B14" s="24">
         <v>9.3240499999999997</v>
@@ -35569,7 +36766,7 @@
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B15" s="24">
         <v>9.3329050000000002</v>
@@ -35703,7 +36900,7 @@
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B16" s="24">
         <v>13.793533333333301</v>
@@ -35834,7 +37031,7 @@
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A17" s="37" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B17" s="24">
         <v>8.1673166666666592</v>
@@ -35965,7 +37162,7 @@
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A18" s="38" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B18" s="24">
         <v>8.4356066666666703</v>
@@ -36100,7 +37297,7 @@
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A19" s="37" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B19" s="24">
         <v>6.7908833333333298</v>
@@ -36231,7 +37428,7 @@
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A20" s="45" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B20" s="24">
         <v>6.9698849999999997</v>
@@ -36362,7 +37559,7 @@
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A21" s="37" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B21" s="24">
         <v>10.399566666666701</v>
@@ -36493,7 +37690,7 @@
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B22" s="24">
         <v>10.994866666666701</v>
@@ -36627,7 +37824,7 @@
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A23" s="37" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B23" s="24">
         <v>8.1590000000000007</v>
@@ -36761,7 +37958,7 @@
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A24" s="37" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B24" s="24">
         <v>9.4779666666666795</v>
@@ -36895,7 +38092,7 @@
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B25" s="24">
         <v>11.164999999999999</v>
@@ -37029,7 +38226,7 @@
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A26" s="47" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B26" s="24">
         <v>7.2095566666666704</v>
@@ -37160,7 +38357,7 @@
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A27" s="38" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B27" s="24">
         <v>10.3066</v>
@@ -37291,7 +38488,7 @@
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A28" s="38" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B28" s="24">
         <v>10.816715</v>
@@ -37760,7 +38957,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>15</v>
@@ -37848,7 +39045,7 @@
     </row>
     <row r="4" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B4" s="18">
         <v>11.9593333333333</v>
@@ -37926,7 +39123,7 @@
     </row>
     <row r="5" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B5" s="18">
         <v>8.6616666666666795</v>
@@ -38004,7 +39201,7 @@
     </row>
     <row r="6" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B6" s="18">
         <v>7.8983333333332402</v>
@@ -38082,7 +39279,7 @@
     </row>
     <row r="7" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B7" s="18">
         <v>17.5262833333333</v>
@@ -38160,7 +39357,7 @@
     </row>
     <row r="8" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B8" s="18">
         <v>7.7496166666666699</v>
@@ -38238,7 +39435,7 @@
     </row>
     <row r="9" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B9" s="18">
         <v>6.7609000000000101</v>
@@ -38316,7 +39513,7 @@
     </row>
     <row r="10" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B10" s="18">
         <v>6.3121000000000098</v>
@@ -38394,7 +39591,7 @@
     </row>
     <row r="11" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B11" s="18">
         <v>6.6515000000000004</v>
@@ -38472,7 +39669,7 @@
     </row>
     <row r="12" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B12" s="18">
         <v>14.1133166666667</v>
@@ -38550,7 +39747,7 @@
     </row>
     <row r="13" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B13" s="18">
         <v>7.1228166666666599</v>
@@ -38628,7 +39825,7 @@
     </row>
     <row r="14" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B14" s="18">
         <v>9.8346666666666707</v>
@@ -38706,7 +39903,7 @@
     </row>
     <row r="15" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B15" s="18">
         <v>8.3029166666666505</v>
@@ -38784,7 +39981,7 @@
     </row>
     <row r="16" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B16" s="18">
         <v>8.2337499999999899</v>
@@ -38862,7 +40059,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B17" s="16">
         <v>6.2951116666666698</v>
@@ -38940,7 +40137,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B18" s="16">
         <v>5.0237333333333298</v>
@@ -39018,7 +40215,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B19" s="16">
         <v>9.5381566666666604</v>
@@ -39096,7 +40293,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="37" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B20" s="16">
         <v>4.8103833333333403</v>
@@ -39174,7 +40371,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="38" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B21" s="16">
         <v>7.9837666666666598</v>
@@ -39252,7 +40449,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="37" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B22" s="16">
         <v>5.9939666666666698</v>
@@ -39330,7 +40527,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="48" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B23" s="16">
         <v>7.7327000000000101</v>
@@ -39408,7 +40605,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="38" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B24" s="16">
         <v>6.4035000000000197</v>
@@ -39486,7 +40683,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="47" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B25" s="16">
         <v>5.5167516666666696</v>
@@ -39564,7 +40761,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="38" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B26" s="16">
         <v>8.5878500000000102</v>
@@ -39642,7 +40839,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="38" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B27" s="16">
         <v>6.7745850000000001</v>
@@ -39993,13 +41190,13 @@
         <v>10</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="Z1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="AF1" s="6" t="s">
         <v>47</v>
@@ -40091,16 +41288,16 @@
         <v>8</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>11</v>
@@ -40172,7 +41369,7 @@
     </row>
     <row r="4" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B4" s="7">
         <v>16</v>
@@ -40315,7 +41512,7 @@
     </row>
     <row r="5" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B5" s="7">
         <v>16</v>
@@ -40446,7 +41643,7 @@
     </row>
     <row r="6" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B6" s="7">
         <v>16</v>
@@ -40578,7 +41775,7 @@
     </row>
     <row r="7" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B7" s="7">
         <v>16</v>
@@ -40709,7 +41906,7 @@
     </row>
     <row r="8" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B8" s="7">
         <v>16</v>
@@ -40841,7 +42038,7 @@
     </row>
     <row r="9" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B9" s="7">
         <v>16</v>
@@ -40972,7 +42169,7 @@
     </row>
     <row r="10" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B10" s="7">
         <v>16</v>
@@ -41104,7 +42301,7 @@
     </row>
     <row r="11" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B11" s="7">
         <v>16</v>
@@ -41235,7 +42432,7 @@
     </row>
     <row r="12" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B12" s="7">
         <v>16</v>
@@ -41367,7 +42564,7 @@
     </row>
     <row r="13" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B13" s="7">
         <v>16</v>
@@ -41498,7 +42695,7 @@
     </row>
     <row r="14" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B14" s="7">
         <v>15</v>
@@ -41631,7 +42828,7 @@
     </row>
     <row r="15" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B15" s="7">
         <v>16</v>
@@ -41762,7 +42959,7 @@
     </row>
     <row r="16" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B16" s="7">
         <v>16</v>
@@ -41891,7 +43088,7 @@
     </row>
     <row r="17" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B17" s="7">
         <v>16</v>
@@ -42022,7 +43219,7 @@
     </row>
     <row r="18" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B18" s="7">
         <v>16</v>
@@ -42151,7 +43348,7 @@
     </row>
     <row r="19" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B19" s="7">
         <v>16</v>
@@ -42282,7 +43479,7 @@
     </row>
     <row r="20" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A20" s="37" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B20" s="7">
         <v>16</v>
@@ -42399,7 +43596,7 @@
     </row>
     <row r="21" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A21" s="38" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B21" s="7">
         <v>16</v>
@@ -42516,7 +43713,7 @@
     </row>
     <row r="22" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A22" s="37" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B22" s="7">
         <v>17</v>
@@ -42633,7 +43830,7 @@
     </row>
     <row r="23" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A23" s="37" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B23" s="7">
         <v>16</v>
@@ -42750,7 +43947,7 @@
     </row>
     <row r="24" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A24" s="38" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B24" s="7">
         <v>16</v>
@@ -42867,7 +44064,7 @@
     </row>
     <row r="25" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A25" s="37" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B25" s="7">
         <v>16</v>
@@ -42984,7 +44181,7 @@
     </row>
     <row r="26" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A26" s="38" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B26" s="7">
         <v>16</v>
@@ -43101,7 +44298,7 @@
     </row>
     <row r="27" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A27" s="38" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B27" s="7">
         <v>16</v>
@@ -43527,18 +44724,18 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C36" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C37" s="7">
         <f>STDEV(C4:C27)/SQRT(24)</f>
@@ -43585,24 +44782,24 @@
         <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C2">
         <v>64</v>
@@ -43624,7 +44821,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C3">
         <v>64</v>
@@ -43646,7 +44843,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C4">
         <v>64</v>
@@ -43668,7 +44865,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C5">
         <v>64</v>
@@ -43690,7 +44887,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C6">
         <v>64</v>
@@ -43712,7 +44909,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C7">
         <v>64</v>
@@ -43734,7 +44931,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C8">
         <v>64</v>
@@ -43756,7 +44953,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C9">
         <v>64</v>
@@ -43778,7 +44975,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C10">
         <v>64</v>
@@ -43800,7 +44997,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C11">
         <v>64</v>
@@ -43822,7 +45019,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="45" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C12">
         <v>64</v>
@@ -43844,7 +45041,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C13">
         <v>64</v>
@@ -43866,7 +45063,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C14">
         <v>64</v>
@@ -43888,7 +45085,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C15">
         <v>64</v>
@@ -43910,7 +45107,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C16">
         <v>64</v>
@@ -43932,7 +45129,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="45" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C17">
         <v>64</v>
@@ -43954,7 +45151,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C18">
         <v>64</v>
@@ -43976,7 +45173,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C19">
         <v>64</v>
@@ -43998,7 +45195,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="37" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C20">
         <v>64</v>
@@ -44020,7 +45217,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="37" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C21">
         <v>64</v>
@@ -44042,7 +45239,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C22">
         <v>64</v>
@@ -44064,7 +45261,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="37" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C23">
         <v>64</v>
@@ -44086,7 +45283,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="38" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C24">
         <v>64</v>
@@ -44108,7 +45305,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C25">
         <v>64</v>
@@ -44182,13 +45379,13 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -44196,72 +45393,72 @@
         <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="W2" s="14" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3">
@@ -44340,7 +45537,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4">
@@ -44421,7 +45618,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5">
@@ -44502,7 +45699,7 @@
     </row>
     <row r="6" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="68" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="14">
@@ -44583,7 +45780,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7">
@@ -44664,7 +45861,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8">
@@ -44745,7 +45942,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9">
@@ -44826,7 +46023,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10">
@@ -44907,7 +46104,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="46" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11">
@@ -44986,7 +46183,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12">
@@ -45065,7 +46262,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="70" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B13" s="69"/>
       <c r="C13" s="14">
@@ -45144,7 +46341,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="47" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14">
@@ -45223,7 +46420,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15">
@@ -45302,7 +46499,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16">
@@ -45381,7 +46578,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="37" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17">
@@ -45460,7 +46657,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="45" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18">
@@ -45539,7 +46736,7 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="37" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19">
@@ -45618,7 +46815,7 @@
     </row>
     <row r="20" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="70" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B20" s="69"/>
       <c r="C20" s="14">
@@ -45697,7 +46894,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="37" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21">
@@ -45776,7 +46973,7 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" s="48" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22">
@@ -45855,7 +47052,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" s="38" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23">
@@ -45934,7 +47131,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" s="37" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24">
@@ -46013,7 +47210,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25">
@@ -46092,7 +47289,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" s="38" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26">
@@ -46249,14 +47446,14 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="H31" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="I31" s="74">
         <v>9.0800000000000006E-2</v>
       </c>
       <c r="J31" s="4"/>
       <c r="S31" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="T31" s="33">
         <f>TTEST(T3:T26,U3:U26,1,1)</f>
@@ -46267,7 +47464,7 @@
         <v>8.5870443478280892E-2</v>
       </c>
       <c r="Z31" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="AA31" s="23">
         <v>5.1999999999999998E-3</v>
@@ -46287,15 +47484,15 @@
     </row>
     <row r="38" spans="19:27" x14ac:dyDescent="0.35">
       <c r="T38" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="U38" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="19:27" x14ac:dyDescent="0.35">
       <c r="S39" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="T39">
         <f>STDEV(T3:T26)/SQRT(24)</f>
@@ -46306,7 +47503,7 @@
         <v>1.785446290413828E-2</v>
       </c>
       <c r="Z39" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="AA39">
         <f>STDEV(AA3:AA26)/SQRT(24)</f>
@@ -46349,65 +47546,65 @@
         <v>45</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>149</v>
-      </c>
       <c r="O1" s="14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="X1"/>
       <c r="Y1"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C2">
         <v>144</v>
@@ -46474,7 +47671,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C3">
         <v>144</v>
@@ -46539,7 +47736,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C4">
         <v>144</v>
@@ -46604,7 +47801,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="48" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C5">
         <v>144</v>
@@ -46669,7 +47866,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C6">
         <v>144</v>
@@ -46734,7 +47931,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C7">
         <v>144</v>
@@ -46799,7 +47996,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C8">
         <v>144</v>
@@ -46864,7 +48061,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C9">
         <v>144</v>
@@ -46929,7 +48126,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C10">
         <v>144</v>
@@ -46994,7 +48191,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C11">
         <v>144</v>
@@ -47059,7 +48256,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C12">
         <v>144</v>
@@ -47124,7 +48321,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C13">
         <v>144</v>
@@ -47189,7 +48386,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="48" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C14">
         <v>144</v>
@@ -47254,7 +48451,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C15">
         <v>144</v>
@@ -47319,7 +48516,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="48" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C16">
         <v>144</v>
@@ -47384,7 +48581,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="45" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C17">
         <v>144</v>
@@ -47449,7 +48646,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C18">
         <v>144</v>
@@ -47514,7 +48711,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="45" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C19">
         <v>144</v>
@@ -47579,7 +48776,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="37" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C20">
         <v>144</v>
@@ -47644,7 +48841,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="37" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C21">
         <v>96</v>
@@ -47709,7 +48906,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="46" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C22">
         <v>144</v>
@@ -47774,7 +48971,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="48" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C23">
         <v>144</v>
@@ -47839,7 +49036,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="38" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C24">
         <v>144</v>
@@ -47904,7 +49101,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C25">
         <v>144</v>
@@ -48058,14 +49255,14 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="I30" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="J30" s="26">
         <f>TTEST(J2:J25,K2:K25,2,1)</f>
         <v>0.9379981123657537</v>
       </c>
       <c r="M30" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="N30" s="23">
         <f>TTEST(N2:N25,O2:O25,1,1)</f>
@@ -48076,7 +49273,7 @@
         <v>0.37420455987838674</v>
       </c>
       <c r="T30" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="U30">
         <v>0.59789999999999999</v>
@@ -48108,80 +49305,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A0A064-F41B-49FB-8E22-9F33E27E0C92}">
   <dimension ref="A1:AJ118"/>
   <sheetViews>
-    <sheetView topLeftCell="Q80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="U87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF97" sqref="AF97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="79" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="I2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="J2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="K2" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="S2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="T2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="U2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="V2" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
@@ -49314,13 +50511,13 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="12" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
@@ -50309,19 +51506,19 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="G52" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="K52" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="R52" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="V52" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.35">
@@ -50339,7 +51536,7 @@
         <v>-0.05</v>
       </c>
       <c r="H53" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -50354,7 +51551,7 @@
       </c>
       <c r="L53" s="29"/>
       <c r="S53" s="12" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="T53">
         <v>1</v>
@@ -50383,7 +51580,7 @@
         <v>-0.3</v>
       </c>
       <c r="H54" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -50398,7 +51595,7 @@
       </c>
       <c r="L54" s="29"/>
       <c r="S54" s="12" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="T54">
         <v>2</v>
@@ -50640,13 +51837,13 @@
         <v>0.05</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="AE69" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.35">
@@ -50664,61 +51861,61 @@
         <v>0.15</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="S70" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="T70" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="T70" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="U70" s="1" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Y70" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD70" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE70" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AD70" s="1" t="s">
+      <c r="AF70" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG70" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH70" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI70" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AE70" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AF70" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AG70" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AH70" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AI70" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="AJ70" s="1" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.35">
@@ -51239,7 +52436,7 @@
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D77" s="7"/>
       <c r="N77" s="7">
@@ -52650,40 +53847,40 @@
         <v>0</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="AG95" s="1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="AH95" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AI95" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AJ95" s="1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="2:36" x14ac:dyDescent="0.35">
@@ -52721,7 +53918,7 @@
         <v>0.34782608695652173</v>
       </c>
       <c r="AF96" s="29">
-        <f t="shared" ref="AF96:AI96" si="14">AVERAGE(AF71:AF94)</f>
+        <f t="shared" ref="AF96:AJ96" si="14">AVERAGE(AF71:AF94)</f>
         <v>0.80898226676816198</v>
       </c>
       <c r="AG96" s="29">
@@ -52745,7 +53942,7 @@
         <v>4</v>
       </c>
       <c r="M97" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="N97">
         <f>STDEV(N71:N94)/SQRT(24)</f>
@@ -52772,7 +53969,7 @@
         <v>0.15821800806613748</v>
       </c>
       <c r="AF97" s="29">
-        <f t="shared" ref="AF97:AI97" si="17">STDEV(AF71:AF94)/SQRT(24)</f>
+        <f t="shared" ref="AF97:AJ97" si="17">STDEV(AF71:AF94)/SQRT(24)</f>
         <v>2.7286753323505445E-2</v>
       </c>
       <c r="AG97" s="29">
@@ -52838,15 +54035,15 @@
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E102" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B103" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -52863,7 +54060,7 @@
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B104" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -52880,7 +54077,7 @@
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B105" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -52897,7 +54094,7 @@
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B106" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -52923,7 +54120,7 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="14:24" x14ac:dyDescent="0.35">
@@ -52967,7 +54164,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B2" s="16">
         <f>Learning!AL4</f>
@@ -52991,7 +54188,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B3" s="16">
         <f>Learning!AL6</f>
@@ -53015,7 +54212,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B4" s="16">
         <f>Learning!AL8</f>
@@ -53039,7 +54236,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B5" s="16">
         <f>Learning!AL10</f>
@@ -53063,7 +54260,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B6" s="16">
         <f>Learning!AL12</f>
@@ -53087,7 +54284,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B7" s="16">
         <f>Learning!AL14</f>
@@ -53111,7 +54308,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B8" s="16">
         <f>Learning!AL16</f>
@@ -53135,7 +54332,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B9" s="16">
         <f>Learning!AL18</f>
@@ -53159,7 +54356,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B10" s="16">
         <f>Learning!AL20</f>
@@ -53183,7 +54380,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B11" s="16">
         <f>Learning!AL22</f>
@@ -53207,7 +54404,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B12" s="16">
         <f>Learning!AL24</f>
@@ -53231,7 +54428,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B13" s="16">
         <f>Learning!AL26</f>
@@ -53255,7 +54452,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B14" s="16">
         <f>Learning!AL28</f>
@@ -53279,7 +54476,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B15" s="16">
         <f>Learning!AL30</f>
@@ -53303,7 +54500,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B16" s="16">
         <f>Learning!AL32</f>
@@ -53327,7 +54524,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B17" s="16">
         <f>Learning!AL34</f>
@@ -53351,7 +54548,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B18" s="16">
         <f>Learning!AL36</f>
@@ -53375,7 +54572,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="38" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B19" s="16">
         <f>Learning!AL38</f>
@@ -53399,7 +54596,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="37" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B20" s="16">
         <f>Learning!AL40</f>
@@ -53423,7 +54620,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="37" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B21" s="16">
         <f>Learning!AL42</f>
@@ -53446,7 +54643,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B22" s="16">
         <f>Learning!AL44</f>
@@ -53469,7 +54666,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="37" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B23" s="16">
         <f>Learning!AL46</f>
@@ -53491,7 +54688,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="38" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B24" s="16">
         <f>Learning!AL48</f>
@@ -53513,7 +54710,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="38" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B25" s="16">
         <f>Learning!AL50</f>
